--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="H2">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="I2">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="J2">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N2">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O2">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P2">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q2">
-        <v>7793.542553167848</v>
+        <v>9437.251667488323</v>
       </c>
       <c r="R2">
-        <v>70141.88297851064</v>
+        <v>84935.26500739492</v>
       </c>
       <c r="S2">
-        <v>0.260568937065436</v>
+        <v>0.7334958795394972</v>
       </c>
       <c r="T2">
-        <v>0.3644633402105204</v>
+        <v>0.7876473453249599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="H3">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="I3">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="J3">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.114657</v>
       </c>
       <c r="O3">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P3">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q3">
-        <v>297.6441565157503</v>
+        <v>327.5311978857753</v>
       </c>
       <c r="R3">
-        <v>2678.797408641753</v>
+        <v>2947.780780971978</v>
       </c>
       <c r="S3">
-        <v>0.009951420802279797</v>
+        <v>0.02545685889648329</v>
       </c>
       <c r="T3">
-        <v>0.01391926492192939</v>
+        <v>0.02733625080854656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="H4">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="I4">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="J4">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N4">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O4">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P4">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q4">
-        <v>58.41656667158733</v>
+        <v>67.32718697749</v>
       </c>
       <c r="R4">
-        <v>525.7491000442859</v>
+        <v>605.94468279741</v>
       </c>
       <c r="S4">
-        <v>0.001953096756806771</v>
+        <v>0.005232902116948374</v>
       </c>
       <c r="T4">
-        <v>0.00273183816826704</v>
+        <v>0.005619229195053447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="H5">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="I5">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="J5">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N5">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O5">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P5">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q5">
-        <v>7074.725195670723</v>
+        <v>1156.594282467497</v>
       </c>
       <c r="R5">
-        <v>42448.35117402434</v>
+        <v>6939.565694804983</v>
       </c>
       <c r="S5">
-        <v>0.2365360311680942</v>
+        <v>0.08989451276492623</v>
       </c>
       <c r="T5">
-        <v>0.2205653341250318</v>
+        <v>0.06435407597474868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="H6">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="I6">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="J6">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N6">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O6">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P6">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q6">
-        <v>43.37056366996833</v>
+        <v>30.41020628184467</v>
       </c>
       <c r="R6">
-        <v>390.3350730297149</v>
+        <v>273.691856536602</v>
       </c>
       <c r="S6">
-        <v>0.001450049396447951</v>
+        <v>0.002363586538708442</v>
       </c>
       <c r="T6">
-        <v>0.002028215076024012</v>
+        <v>0.002538081964179961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.114657</v>
       </c>
       <c r="I7">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="J7">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N7">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O7">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P7">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q7">
-        <v>297.6441565157503</v>
+        <v>327.5311978857753</v>
       </c>
       <c r="R7">
-        <v>2678.797408641753</v>
+        <v>2947.780780971978</v>
       </c>
       <c r="S7">
-        <v>0.009951420802279797</v>
+        <v>0.02545685889648329</v>
       </c>
       <c r="T7">
-        <v>0.01391926492192939</v>
+        <v>0.02733625080854656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.114657</v>
       </c>
       <c r="I8">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="J8">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,10 +933,10 @@
         <v>10.114657</v>
       </c>
       <c r="O8">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P8">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q8">
         <v>11.36736513640544</v>
@@ -945,10 +945,10 @@
         <v>102.306286227649</v>
       </c>
       <c r="S8">
-        <v>0.0003800559540954712</v>
+        <v>0.0008835109820689377</v>
       </c>
       <c r="T8">
-        <v>0.0005315923841748886</v>
+        <v>0.0009487375444139416</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.114657</v>
       </c>
       <c r="I9">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="J9">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N9">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O9">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P9">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q9">
-        <v>2.230994389893111</v>
+        <v>2.336671202378334</v>
       </c>
       <c r="R9">
-        <v>20.078949509038</v>
+        <v>21.030040821405</v>
       </c>
       <c r="S9">
-        <v>7.459096204422544E-05</v>
+        <v>0.0001816141774291865</v>
       </c>
       <c r="T9">
-        <v>0.000104331972499575</v>
+        <v>0.0001950221244804854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>10.114657</v>
       </c>
       <c r="I10">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="J10">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N10">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O10">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P10">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q10">
-        <v>270.1917130856253</v>
+        <v>40.14099911200517</v>
       </c>
       <c r="R10">
-        <v>1621.150278513752</v>
+        <v>240.845994672031</v>
       </c>
       <c r="S10">
-        <v>0.00903357709312739</v>
+        <v>0.003119897453904669</v>
       </c>
       <c r="T10">
-        <v>0.00842363820873409</v>
+        <v>0.002233485800262803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,40 +1101,40 @@
         <v>10.114657</v>
       </c>
       <c r="I11">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="J11">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N11">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O11">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P11">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q11">
-        <v>1.656370611066111</v>
+        <v>1.055422875471222</v>
       </c>
       <c r="R11">
-        <v>14.907335499595</v>
+        <v>9.498805879241001</v>
       </c>
       <c r="S11">
-        <v>5.537901750937265E-05</v>
+        <v>8.203112067010344E-05</v>
       </c>
       <c r="T11">
-        <v>7.745981515046897E-05</v>
+        <v>8.808719480524255E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="H12">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="I12">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="J12">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N12">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O12">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P12">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q12">
-        <v>58.41656667158733</v>
+        <v>67.32718697749</v>
       </c>
       <c r="R12">
-        <v>525.7491000442859</v>
+        <v>605.94468279741</v>
       </c>
       <c r="S12">
-        <v>0.001953096756806771</v>
+        <v>0.005232902116948374</v>
       </c>
       <c r="T12">
-        <v>0.00273183816826704</v>
+        <v>0.005619229195053447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="H13">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="I13">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="J13">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,22 +1243,22 @@
         <v>10.114657</v>
       </c>
       <c r="O13">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P13">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q13">
-        <v>2.230994389893111</v>
+        <v>2.336671202378334</v>
       </c>
       <c r="R13">
-        <v>20.078949509038</v>
+        <v>21.030040821405</v>
       </c>
       <c r="S13">
-        <v>7.459096204422544E-05</v>
+        <v>0.0001816141774291865</v>
       </c>
       <c r="T13">
-        <v>0.000104331972499575</v>
+        <v>0.0001950221244804854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="H14">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="I14">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="J14">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N14">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O14">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P14">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q14">
-        <v>0.4378618886617778</v>
+        <v>0.4803252330250001</v>
       </c>
       <c r="R14">
-        <v>3.940756997956</v>
+        <v>4.322927097225</v>
       </c>
       <c r="S14">
-        <v>1.463945389811058E-05</v>
+        <v>3.733254041284391E-05</v>
       </c>
       <c r="T14">
-        <v>2.047651698875911E-05</v>
+        <v>4.008867284827043E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="H15">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="I15">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="J15">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N15">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O15">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P15">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q15">
-        <v>53.02866485383733</v>
+        <v>8.251368328032502</v>
       </c>
       <c r="R15">
-        <v>318.171989123024</v>
+        <v>49.50820996819501</v>
       </c>
       <c r="S15">
-        <v>0.001772957899530192</v>
+        <v>0.0006413249198413452</v>
       </c>
       <c r="T15">
-        <v>0.001653249399545347</v>
+        <v>0.0004591144814800354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="H16">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="I16">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="J16">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N16">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O16">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P16">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q16">
-        <v>0.3250844409877777</v>
+        <v>0.2169523200716667</v>
       </c>
       <c r="R16">
-        <v>2.92575996889</v>
+        <v>1.952570880645</v>
       </c>
       <c r="S16">
-        <v>1.086885798939608E-05</v>
+        <v>1.686228559288324E-05</v>
       </c>
       <c r="T16">
-        <v>1.520250391969901E-05</v>
+        <v>1.810716986124612E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="H17">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="I17">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="J17">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N17">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O17">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P17">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q17">
-        <v>7074.725195670723</v>
+        <v>1156.594282467497</v>
       </c>
       <c r="R17">
-        <v>42448.35117402434</v>
+        <v>6939.565694804983</v>
       </c>
       <c r="S17">
-        <v>0.2365360311680942</v>
+        <v>0.08989451276492623</v>
       </c>
       <c r="T17">
-        <v>0.2205653341250318</v>
+        <v>0.06435407597474868</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="H18">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="I18">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="J18">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,22 +1553,22 @@
         <v>10.114657</v>
       </c>
       <c r="O18">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P18">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q18">
-        <v>270.1917130856253</v>
+        <v>40.14099911200517</v>
       </c>
       <c r="R18">
-        <v>1621.150278513752</v>
+        <v>240.845994672031</v>
       </c>
       <c r="S18">
-        <v>0.00903357709312739</v>
+        <v>0.003119897453904669</v>
       </c>
       <c r="T18">
-        <v>0.00842363820873409</v>
+        <v>0.002233485800262803</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="H19">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="I19">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="J19">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N19">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O19">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P19">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q19">
-        <v>53.02866485383733</v>
+        <v>8.251368328032502</v>
       </c>
       <c r="R19">
-        <v>318.171989123024</v>
+        <v>49.50820996819501</v>
       </c>
       <c r="S19">
-        <v>0.001772957899530192</v>
+        <v>0.0006413249198413452</v>
       </c>
       <c r="T19">
-        <v>0.001653249399545347</v>
+        <v>0.0004591144814800354</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="H20">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="I20">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="J20">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N20">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O20">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P20">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q20">
-        <v>6422.206108814224</v>
+        <v>141.7478712414723</v>
       </c>
       <c r="R20">
-        <v>25688.82443525689</v>
+        <v>566.9914849658891</v>
       </c>
       <c r="S20">
-        <v>0.2147197385492778</v>
+        <v>0.01101713540683679</v>
       </c>
       <c r="T20">
-        <v>0.1334813717878631</v>
+        <v>0.005257996639162273</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,46 +1715,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="H21">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="I21">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="J21">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N21">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O21">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P21">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q21">
-        <v>39.37039125059333</v>
+        <v>3.726961190979834</v>
       </c>
       <c r="R21">
-        <v>236.2223475035599</v>
+        <v>22.361767145879</v>
       </c>
       <c r="S21">
-        <v>0.00131630781894526</v>
+        <v>0.0002896723297318709</v>
       </c>
       <c r="T21">
-        <v>0.001227431915819746</v>
+        <v>0.0002073718911419539</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1771,22 +1771,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="H22">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="I22">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="J22">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N22">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O22">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P22">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q22">
-        <v>43.37056366996833</v>
+        <v>30.41020628184467</v>
       </c>
       <c r="R22">
-        <v>390.3350730297149</v>
+        <v>273.691856536602</v>
       </c>
       <c r="S22">
-        <v>0.001450049396447951</v>
+        <v>0.002363586538708442</v>
       </c>
       <c r="T22">
-        <v>0.002028215076024012</v>
+        <v>0.002538081964179961</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1833,22 +1833,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="H23">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="I23">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="J23">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,22 +1863,22 @@
         <v>10.114657</v>
       </c>
       <c r="O23">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P23">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q23">
-        <v>1.656370611066111</v>
+        <v>1.055422875471222</v>
       </c>
       <c r="R23">
-        <v>14.907335499595</v>
+        <v>9.498805879241001</v>
       </c>
       <c r="S23">
-        <v>5.537901750937265E-05</v>
+        <v>8.203112067010344E-05</v>
       </c>
       <c r="T23">
-        <v>7.745981515046897E-05</v>
+        <v>8.808719480524255E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1895,22 +1895,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="H24">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="I24">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="J24">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,28 +1919,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N24">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O24">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P24">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q24">
-        <v>0.3250844409877777</v>
+        <v>0.2169523200716667</v>
       </c>
       <c r="R24">
-        <v>2.92575996889</v>
+        <v>1.952570880645</v>
       </c>
       <c r="S24">
-        <v>1.086885798939608E-05</v>
+        <v>1.686228559288324E-05</v>
       </c>
       <c r="T24">
-        <v>1.520250391969901E-05</v>
+        <v>1.810716986124612E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1957,22 +1957,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="H25">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="I25">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="J25">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N25">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O25">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P25">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q25">
-        <v>39.37039125059333</v>
+        <v>3.726961190979834</v>
       </c>
       <c r="R25">
-        <v>236.2223475035599</v>
+        <v>22.361767145879</v>
       </c>
       <c r="S25">
-        <v>0.00131630781894526</v>
+        <v>0.0002896723297318709</v>
       </c>
       <c r="T25">
-        <v>0.001227431915819746</v>
+        <v>0.0002073718911419539</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2019,52 +2019,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="H26">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="I26">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="J26">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N26">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O26">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P26">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q26">
-        <v>0.2413544008027777</v>
+        <v>0.09799258075211115</v>
       </c>
       <c r="R26">
-        <v>2.172189607225</v>
+        <v>0.8819332267690002</v>
       </c>
       <c r="S26">
-        <v>8.069431743550596E-06</v>
+        <v>7.616322711275613E-06</v>
       </c>
       <c r="T26">
-        <v>1.128688661042005E-05</v>
+        <v>8.178609494630986E-06</v>
       </c>
     </row>
   </sheetData>
